--- a/VersionRecords/Version 400Ph2/定时器/新增定时器 (EQ组).xlsx
+++ b/VersionRecords/Version 400Ph2/定时器/新增定时器 (EQ组).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="job任务模板" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>上线版本</t>
   </si>
@@ -116,6 +116,42 @@
   </si>
   <si>
     <t>对于具备TP资质的房东，为其批量创建TP渠道的分机</t>
+  </si>
+  <si>
+    <t>尚景调用失败数据修复定时器</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.TeleFixSungoinDataTask</t>
+  </si>
+  <si>
+    <t>TeleFixSungoinDataTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.TeleFixSungoinDataTask"}</t>
+  </si>
+  <si>
+    <t>每8小时执行一次</t>
+  </si>
+  <si>
+    <t>尚景调用采用异步方式，对于调用失败的请求，定期采集和逐条重试修复</t>
+  </si>
+  <si>
+    <t>尚景数据全量同步定时器</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.TeleSungoinDataAllSyncTask</t>
+  </si>
+  <si>
+    <t>TeleSungoinDataAllSyncTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.TeleSungoinDataAllSyncTask"}</t>
+  </si>
+  <si>
+    <t>每3天执行一次</t>
+  </si>
+  <si>
+    <t>对比尚景和蘑菇两边的导航和坐席，已经导航和坐席的关联关系，不一致的予以修复</t>
   </si>
 </sst>
 </file>
@@ -123,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -168,6 +204,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,7 +232,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +332,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,116 +346,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,8 +360,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -358,37 +394,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,145 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,56 +603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,11 +647,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,148 +720,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -834,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,13 +1306,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -1294,7 +1330,7 @@
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="7.5" customWidth="1"/>
     <col min="17" max="17" width="29.125" customWidth="1"/>
-    <col min="18" max="18" width="12.25" customWidth="1"/>
+    <col min="18" max="18" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
@@ -1405,6 +1441,114 @@
       </c>
       <c r="R2" s="14" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="77.25" customHeight="1" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="77.25" customHeight="1" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
